--- a/example/анкета-преподавателя/xlsx/Мишуров Сергей Сергеевич.xlsx
+++ b/example/анкета-преподавателя/xlsx/Мишуров Сергей Сергеевич.xlsx
@@ -799,7 +799,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A26" sqref="A25:A26"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
